--- a/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.869231964713049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.688497761408803</v>
+        <v>-2.688497761408792</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>11.15546295094843</v>
@@ -664,7 +664,7 @@
         <v>4.921166532721877</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.363978114591037</v>
+        <v>2.363978114591048</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.442120252596121</v>
+        <v>-2.35712030225942</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5952918060444419</v>
+        <v>-0.6742306408921016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.844470329251742</v>
+        <v>-7.497225375568717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.335932766420523</v>
+        <v>7.192059332154216</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.291447205891286</v>
+        <v>1.493631554915278</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.992949347508427</v>
+        <v>1.598107984312477</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.69767145538467</v>
+        <v>4.500888706049892</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.929820093828789</v>
+        <v>1.883917045729895</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.5954364567220519</v>
+        <v>-0.5646069061575643</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.151072871841567</v>
+        <v>6.407123799134562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.551905563255934</v>
+        <v>8.841932471805016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.394145869033915</v>
+        <v>2.221655205745483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.78302367882574</v>
+        <v>14.98870717585835</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.446227353042268</v>
+        <v>9.689286214727645</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.267375297577916</v>
+        <v>9.565186045402383</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.45518779747601</v>
+        <v>10.2078992258465</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.289665856464888</v>
+        <v>8.190593489875425</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.514900890473004</v>
+        <v>5.561464664909954</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.07369280867394341</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.05120472304547328</v>
+        <v>-0.05120472304547306</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.199056726620881</v>
@@ -769,7 +769,7 @@
         <v>0.09031852322789299</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.04338626031719133</v>
+        <v>0.04338626031719153</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0452140491873746</v>
+        <v>-0.04254977783978011</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0103947137743242</v>
+        <v>-0.01200796418313674</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1434893268012114</v>
+        <v>-0.1373281013556787</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1272837537540639</v>
+        <v>0.1214237959164837</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02359984145797057</v>
+        <v>0.02559474911091566</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03712117169104844</v>
+        <v>0.02692085892095426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0833364521270173</v>
+        <v>0.0798681894663818</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03438877671479108</v>
+        <v>0.03366559278901935</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01082474245684187</v>
+        <v>-0.009933541124772688</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1221191911573515</v>
+        <v>0.127313739819173</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1734963933459808</v>
+        <v>0.176051799564118</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04595458563535811</v>
+        <v>0.04394568285656951</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2731514051762302</v>
+        <v>0.2779579007230123</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1766932780465716</v>
+        <v>0.1781118899363154</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1718287449763706</v>
+        <v>0.1766411163833917</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1956631148656791</v>
+        <v>0.1917110029431227</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1560048145245331</v>
+        <v>0.1516874291711374</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1038834281627565</v>
+        <v>0.1061338629302018</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>7.136039687753498</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.119653449012181</v>
+        <v>1.119653449012198</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.739058455060465</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.994315585144562</v>
+        <v>4.906778395194255</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.888019250862539</v>
+        <v>3.678725413427972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.207100456734274</v>
+        <v>-2.35418871781314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.42459185977421</v>
+        <v>3.679288937679469</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.521362492162362</v>
+        <v>-3.94420408730562</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.868068712138852</v>
+        <v>-9.037771884008922</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.981144304607321</v>
+        <v>4.946029801788703</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.210163328893467</v>
+        <v>1.158366537215243</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.414487136173852</v>
+        <v>-4.197831924554364</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.44711757749948</v>
+        <v>11.3811176798625</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.36279080968535</v>
+        <v>10.38763149072321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.011935109443535</v>
+        <v>4.69998562390875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.15787290796944</v>
+        <v>10.1982775620473</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.18182514967188</v>
+        <v>2.83500995127025</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.629259310506467</v>
+        <v>-2.423172641845126</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.15150511383401</v>
+        <v>9.812053107080292</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.124836619033582</v>
+        <v>5.957768254218946</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1504510550434054</v>
+        <v>0.4625695329311265</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1836312002908853</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.02881196234163077</v>
+        <v>0.02881196234163119</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1272921336034754</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1207219534734519</v>
+        <v>0.1177326858203951</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09483430039265819</v>
+        <v>0.08735473964537137</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05554819194044054</v>
+        <v>-0.05872732517390217</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06251747406053849</v>
+        <v>0.06700858042256258</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06483593112964249</v>
+        <v>-0.07288412608490594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1632338301861204</v>
+        <v>-0.1642649027451361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1046962975013744</v>
+        <v>0.1052108110976202</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02579709122724171</v>
+        <v>0.023516551462384</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09419553630559759</v>
+        <v>-0.08955879157157107</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3062709221272075</v>
+        <v>0.3035484029199264</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2799586671195906</v>
+        <v>0.2794291058837388</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1340168978519303</v>
+        <v>0.1268897182588918</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.197153919598983</v>
+        <v>0.1989407467083961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06199188999345892</v>
+        <v>0.05459736532553248</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0515636211263157</v>
+        <v>-0.04924205852800605</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2272798580384972</v>
+        <v>0.2184248679093281</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1377525357140778</v>
+        <v>0.1339165624869448</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.003463756853669018</v>
+        <v>0.01037326127047917</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.949878816424123</v>
+        <v>-0.3678843620596113</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8476438158247266</v>
+        <v>-0.7469353979088477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.072505795504473</v>
+        <v>-3.276619554511857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.951671415521743</v>
+        <v>-5.906111893735987</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.589353266094452</v>
+        <v>-9.081651862395768</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.850124817142722</v>
+        <v>-10.20387854051111</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.7456529375298036</v>
+        <v>-0.7865215633374426</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.879249869665262</v>
+        <v>-2.318700022712498</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.420550503672164</v>
+        <v>-4.657105045131823</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.28206343486994</v>
+        <v>13.46626879399573</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.65084427473975</v>
+        <v>11.77763459878174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.334707958869041</v>
+        <v>8.149019717376243</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.739387216018985</v>
+        <v>7.686230794899259</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.421958368155988</v>
+        <v>3.775541430609058</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.156849056632689</v>
+        <v>1.71998254880817</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.155753774563619</v>
+        <v>9.05808791975406</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.990351491996322</v>
+        <v>6.644499518444793</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.498040632057648</v>
+        <v>3.346117557978437</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02323662741024177</v>
+        <v>-0.008345636437356843</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01892961850566288</v>
+        <v>-0.0149310576538288</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09496550680596218</v>
+        <v>-0.07432747621039787</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1045429875115558</v>
+        <v>-0.1052363851761056</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1500400405780634</v>
+        <v>-0.1629519000864306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1760797462028482</v>
+        <v>-0.1778601723996496</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01609274311427484</v>
+        <v>-0.01651824638033089</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05689792506604077</v>
+        <v>-0.04947631920088337</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09149741077334089</v>
+        <v>-0.09584093057228542</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.342938894797687</v>
+        <v>0.3775062904270456</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3226684323542967</v>
+        <v>0.3338092016349863</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2328745825318866</v>
+        <v>0.2309238143906807</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1533821166262936</v>
+        <v>0.1585953419311253</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09140006948012531</v>
+        <v>0.07647217733053578</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02339662146852936</v>
+        <v>0.03602746961131502</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2124219808793937</v>
+        <v>0.2084025757235999</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1401163330815505</v>
+        <v>0.1484396534679711</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.08163156285041689</v>
+        <v>0.07722135279883587</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.888468405007512</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.35401166750595</v>
+        <v>-1.354011667505955</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.639109989731496</v>
@@ -1297,7 +1297,7 @@
         <v>0.6705724080600106</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.391091049821682</v>
+        <v>-3.391091049821671</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>6.728011061662315</v>
@@ -1306,7 +1306,7 @@
         <v>2.770373926225616</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.330255050530022</v>
+        <v>-2.330255050530011</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.279526484650877</v>
+        <v>3.414414022873796</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.355545429003307</v>
+        <v>2.470414018367209</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.047025186396211</v>
+        <v>-3.938332602853325</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.247741573852609</v>
+        <v>5.365495540488493</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.703310910201162</v>
+        <v>-1.794581440228713</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.340884389523519</v>
+        <v>-5.421690401438179</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.996198872864954</v>
+        <v>5.012511911763302</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9348889104142654</v>
+        <v>1.1048342106475</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.995024086108036</v>
+        <v>-3.939897031138551</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.360174964132396</v>
+        <v>8.080552377279965</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.322399541157976</v>
+        <v>7.404695458609073</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.2817261327994</v>
+        <v>1.175719877127116</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.000910311326</v>
+        <v>10.12653035574085</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.037643020107435</v>
+        <v>3.065119386689314</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.8205211494714182</v>
+        <v>-1.280108053277019</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.384240377417136</v>
+        <v>8.399761381340621</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.410320220449651</v>
+        <v>4.588051911572814</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.7473380984659668</v>
+        <v>-0.5972961721065794</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1131073737027482</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.03132856571551094</v>
+        <v>-0.03132856571551106</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1409912563182955</v>
@@ -1402,7 +1402,7 @@
         <v>0.0123764216501468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.06258768207903387</v>
+        <v>-0.06258768207903367</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1379111499967254</v>
@@ -1411,7 +1411,7 @@
         <v>0.0567872809044282</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.04776569938112902</v>
+        <v>-0.04776569938112879</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0736928685643868</v>
+        <v>0.07670221179893431</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.05229639325615031</v>
+        <v>0.05423051093569001</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.09076613244049481</v>
+        <v>-0.08833172810965234</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0930934723413623</v>
+        <v>0.09731561166498494</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03084605263961552</v>
+        <v>-0.03261159697238746</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09712376230972911</v>
+        <v>-0.09811517426343987</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1011510271121851</v>
+        <v>0.1013904557872028</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01873372301584759</v>
+        <v>0.02139914356869977</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08149011661032543</v>
+        <v>-0.07950979105515184</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1992170738364269</v>
+        <v>0.1941920510230701</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1751155504511191</v>
+        <v>0.1741996889951181</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03079013568017706</v>
+        <v>0.0282402925222555</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1901914301775376</v>
+        <v>0.1902682565395815</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05662131688377363</v>
+        <v>0.05814597214027969</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01532699684353053</v>
+        <v>-0.02458499663219115</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1747285909730381</v>
+        <v>0.1747638374988629</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09170411513624185</v>
+        <v>0.09571284799924749</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.01555295720763324</v>
+        <v>-0.01200154622284171</v>
       </c>
     </row>
     <row r="28">
